--- a/Team-Data/2020-21/1-18-2020-21.xlsx
+++ b/Team-Data/2020-21/1-18-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>108.7</v>
       </c>
       <c r="BN3" t="n">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="BO3" t="n">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="BP3" t="n">
         <v>109</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BR3" t="n">
         <v>1.7</v>
@@ -3073,7 +3073,7 @@
         <v>16.5</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="BW3" t="n">
         <v>0.73</v>
@@ -3091,16 +3091,16 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="CB3" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.21</v>
+        <v>100.29</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.51000000000001</v>
+        <v>83.58</v>
       </c>
       <c r="CE3" t="n">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="CF3" t="n">
         <v>0.506</v>
@@ -3121,7 +3121,7 @@
         <v>29</v>
       </c>
       <c r="CL3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CM3" t="n">
         <v>14</v>
@@ -3145,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="CT3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CU3" t="n">
         <v>23</v>
@@ -3157,7 +3157,7 @@
         <v>16</v>
       </c>
       <c r="CX3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CY3" t="n">
         <v>12</v>
@@ -3203,7 +3203,7 @@
         <v>0.155</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="DM3" t="n">
         <v>0.53</v>
@@ -3212,7 +3212,7 @@
         <v>0.263</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="DP3" t="n">
         <v>0.27</v>
@@ -3251,7 +3251,7 @@
         <v>22</v>
       </c>
       <c r="EB3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="EC3" t="n">
         <v>20</v>
@@ -3648,16 +3648,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="IY3" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="IZ3" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="JA3" t="n">
         <v>22.3</v>
       </c>
       <c r="JB3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="JC3" t="n">
         <v>7.8</v>
@@ -3735,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="KC3" t="n">
         <v>14</v>
@@ -5899,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="CL6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CM6" t="n">
         <v>27</v>
@@ -8365,7 +8365,7 @@
         <v>6</v>
       </c>
       <c r="KB8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="KC8" t="n">
         <v>19</v>
@@ -9386,16 +9386,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
         <v>24.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9473,7 +9473,7 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>9</v>
@@ -9537,10 +9537,10 @@
         <v>110.9</v>
       </c>
       <c r="BP10" t="n">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="BR10" t="n">
         <v>-3.9</v>
@@ -9549,7 +9549,7 @@
         <v>0.629</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BU10" t="n">
         <v>17.4</v>
@@ -9558,13 +9558,13 @@
         <v>0.285</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.498</v>
@@ -9576,13 +9576,13 @@
         <v>101</v>
       </c>
       <c r="CC10" t="n">
-        <v>98.97</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="CD10" t="n">
-        <v>82.47</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="CE10" t="n">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="CF10" t="n">
         <v>0.461</v>
@@ -9624,7 +9624,7 @@
         <v>7</v>
       </c>
       <c r="CS10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CT10" t="n">
         <v>19</v>
@@ -9682,7 +9682,7 @@
         <v>0.244</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="DL10" t="n">
         <v>0.285</v>
@@ -9697,7 +9697,7 @@
         <v>0.172</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.262</v>
+        <v>0.26</v>
       </c>
       <c r="DQ10" t="n">
         <v>13</v>
@@ -9736,7 +9736,7 @@
         <v>2</v>
       </c>
       <c r="EC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10000,13 +10000,13 @@
         <v>49.2</v>
       </c>
       <c r="HI10" t="n">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="HJ10" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10048,7 +10048,7 @@
         <v>30</v>
       </c>
       <c r="HY10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="HZ10" t="n">
         <v>9</v>
@@ -11585,7 +11585,7 @@
         <v>16</v>
       </c>
       <c r="EB12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EC12" t="n">
         <v>30</v>
@@ -13331,7 +13331,7 @@
         <v>9</v>
       </c>
       <c r="CT14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CU14" t="n">
         <v>15</v>
@@ -13437,7 +13437,7 @@
         <v>17</v>
       </c>
       <c r="EB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EC14" t="n">
         <v>9</v>
@@ -16693,7 +16693,7 @@
         <v>5</v>
       </c>
       <c r="JZ17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="KA17" t="n">
         <v>18</v>
@@ -19813,7 +19813,7 @@
         <v>20</v>
       </c>
       <c r="CT21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CU21" t="n">
         <v>20</v>
@@ -21677,7 +21677,7 @@
         <v>30</v>
       </c>
       <c r="CX23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CY23" t="n">
         <v>27</v>
@@ -25215,7 +25215,7 @@
         <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
@@ -27197,7 +27197,7 @@
         <v>19</v>
       </c>
       <c r="CL29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CM29" t="n">
         <v>16</v>
@@ -28144,7 +28144,7 @@
         <v>4</v>
       </c>
       <c r="CS30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CT30" t="n">
         <v>3</v>
@@ -28256,7 +28256,7 @@
         <v>30</v>
       </c>
       <c r="EC30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="ED30" t="n">
         <v>10</v>
@@ -28568,7 +28568,7 @@
         <v>1</v>
       </c>
       <c r="HY30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="HZ30" t="n">
         <v>30</v>

--- a/Team-Data/2020-21/1-18-2020-21.xlsx
+++ b/Team-Data/2020-21/1-18-2020-21.xlsx
@@ -733,106 +733,106 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.462</v>
+        <v>0.417</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J2" t="n">
-        <v>89</v>
+        <v>89.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L2" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="M2" t="n">
-        <v>36.6</v>
+        <v>37.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="O2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P2" t="n">
         <v>25.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.819</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="S2" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="T2" t="n">
         <v>48.8</v>
       </c>
       <c r="U2" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="X2" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
         <v>5.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>19</v>
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -850,44 +850,44 @@
         <v>3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="n">
         <v>6</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>5</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC2" t="n">
         <v>12</v>
       </c>
-      <c r="BB2" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>10</v>
-      </c>
       <c r="BD2" t="n">
         <v>10</v>
       </c>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -993,16 +993,16 @@
         <v>1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -1011,10 +1011,10 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>20</v>
@@ -1023,25 +1023,25 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>25</v>
@@ -1053,22 +1053,22 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
         <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB3" t="n">
         <v>15</v>
       </c>
-      <c r="BB3" t="n">
-        <v>16</v>
-      </c>
       <c r="BC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -1097,100 +1097,100 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.571</v>
       </c>
       <c r="H4" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="J4" t="n">
-        <v>87</v>
+        <v>87.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.494</v>
+        <v>0.491</v>
       </c>
       <c r="L4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="M4" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.403</v>
+        <v>0.398</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P4" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.806</v>
+        <v>0.802</v>
       </c>
       <c r="R4" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="S4" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="T4" t="n">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="U4" t="n">
         <v>26</v>
       </c>
       <c r="V4" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W4" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
         <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.3</v>
+        <v>118.9</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
@@ -1202,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="AM4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN4" t="n">
         <v>3</v>
@@ -1211,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>4</v>
@@ -1232,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
         <v>8</v>
@@ -1241,10 +1241,10 @@
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>3</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -1357,22 +1357,22 @@
         <v>-0.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>20</v>
@@ -1387,16 +1387,16 @@
         <v>14</v>
       </c>
       <c r="AN5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
         <v>14</v>
       </c>
-      <c r="AO5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>9</v>
@@ -1405,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
@@ -1423,13 +1423,13 @@
         <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>15</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -1461,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.429</v>
+        <v>0.385</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1479,136 +1479,136 @@
         <v>42.1</v>
       </c>
       <c r="J6" t="n">
-        <v>88.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="M6" t="n">
-        <v>36.1</v>
+        <v>35.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.385</v>
+        <v>0.38</v>
       </c>
       <c r="O6" t="n">
         <v>19.2</v>
       </c>
       <c r="P6" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.805</v>
+        <v>0.799</v>
       </c>
       <c r="R6" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S6" t="n">
         <v>36.5</v>
       </c>
       <c r="T6" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U6" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="V6" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.4</v>
+        <v>116.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.6</v>
+        <v>-3.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>9</v>
       </c>
       <c r="AL6" t="n">
         <v>8</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
         <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>29</v>
       </c>
       <c r="AW6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX6" t="n">
         <v>25</v>
       </c>
       <c r="AY6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ6" t="n">
         <v>27</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -1721,13 +1721,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
         <v>16</v>
@@ -1739,19 +1739,19 @@
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="n">
         <v>23</v>
       </c>
-      <c r="AK7" t="n">
-        <v>25</v>
-      </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>28</v>
@@ -1763,13 +1763,13 @@
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS7" t="n">
         <v>27</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>20</v>
@@ -1781,13 +1781,13 @@
         <v>2</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA7" t="n">
         <v>28</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -1825,160 +1825,160 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="M8" t="n">
         <v>38.6</v>
       </c>
-      <c r="J8" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="L8" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="M8" t="n">
-        <v>38.4</v>
-      </c>
       <c r="N8" t="n">
-        <v>0.337</v>
+        <v>0.343</v>
       </c>
       <c r="O8" t="n">
-        <v>17.3</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.735</v>
+        <v>0.728</v>
       </c>
       <c r="R8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S8" t="n">
-        <v>35.6</v>
+        <v>36.1</v>
       </c>
       <c r="T8" t="n">
-        <v>44.5</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
         <v>22</v>
-      </c>
-      <c r="V8" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>28</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
       </c>
       <c r="AN8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>27</v>
       </c>
       <c r="AV8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>6</v>
       </c>
       <c r="BB8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BC8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -2085,13 +2085,13 @@
         <v>2.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>16</v>
@@ -2100,40 +2100,40 @@
         <v>2</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM9" t="n">
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>9</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -2142,22 +2142,22 @@
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY9" t="n">
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>1</v>
       </c>
       <c r="BB9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC9" t="n">
         <v>9</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -2189,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.231</v>
+        <v>0.25</v>
       </c>
       <c r="H10" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I10" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J10" t="n">
-        <v>91.7</v>
+        <v>92.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.425</v>
+        <v>0.423</v>
       </c>
       <c r="L10" t="n">
         <v>13.3</v>
       </c>
       <c r="M10" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="N10" t="n">
         <v>0.345</v>
@@ -2225,55 +2225,55 @@
         <v>17.6</v>
       </c>
       <c r="P10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
       <c r="R10" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S10" t="n">
-        <v>31.6</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y10" t="n">
         <v>6.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.9</v>
+        <v>109.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
         <v>30</v>
@@ -2285,58 +2285,58 @@
         <v>24</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM10" t="n">
         <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AT10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AU10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>27</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -2371,91 +2371,91 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.538</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="J11" t="n">
-        <v>89.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.444</v>
+        <v>0.439</v>
       </c>
       <c r="L11" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="M11" t="n">
         <v>37.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O11" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="P11" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S11" t="n">
-        <v>35.2</v>
+        <v>35.9</v>
       </c>
       <c r="T11" t="n">
-        <v>43.2</v>
+        <v>44.1</v>
       </c>
       <c r="U11" t="n">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y11" t="n">
         <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="AA11" t="n">
         <v>22</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.6</v>
+        <v>111.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -2464,55 +2464,55 @@
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX11" t="n">
         <v>5</v>
       </c>
-      <c r="AP11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT11" t="n">
+      <c r="AY11" t="n">
         <v>21</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>19</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2521,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="BB11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC11" t="n">
         <v>23</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -2553,133 +2553,133 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.333</v>
+        <v>0.364</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>39.9</v>
+        <v>39.4</v>
       </c>
       <c r="J12" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K12" t="n">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="L12" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="P12" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.734</v>
+        <v>0.739</v>
       </c>
       <c r="R12" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="S12" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
         <v>19.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>110.2</v>
+        <v>109.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>25</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AR12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS12" t="n">
         <v>15</v>
       </c>
       <c r="AT12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU12" t="n">
         <v>22</v>
@@ -2691,22 +2691,22 @@
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>12</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -2813,22 +2813,22 @@
         <v>3.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF13" t="n">
         <v>7</v>
       </c>
-      <c r="AF13" t="n">
-        <v>5</v>
-      </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2843,31 +2843,31 @@
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW13" t="n">
         <v>3</v>
@@ -2876,19 +2876,19 @@
         <v>10</v>
       </c>
       <c r="AY13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB13" t="n">
         <v>11</v>
       </c>
       <c r="BC13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -2995,13 +2995,13 @@
         <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>2</v>
@@ -3013,10 +3013,10 @@
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>5</v>
@@ -3031,7 +3031,7 @@
         <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -3046,13 +3046,13 @@
         <v>30</v>
       </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
         <v>10</v>
       </c>
       <c r="AW14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX14" t="n">
         <v>20</v>
@@ -3067,7 +3067,7 @@
         <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -3099,82 +3099,82 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.733</v>
+        <v>0.786</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.488</v>
       </c>
       <c r="L15" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="M15" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.391</v>
+        <v>0.396</v>
       </c>
       <c r="O15" t="n">
-        <v>16.9</v>
+        <v>16.4</v>
       </c>
       <c r="P15" t="n">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S15" t="n">
         <v>38.1</v>
       </c>
       <c r="T15" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="U15" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="W15" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3192,13 +3192,13 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL15" t="n">
         <v>18</v>
@@ -3210,10 +3210,10 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>15</v>
@@ -3228,25 +3228,25 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -3281,97 +3281,97 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.538</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="J16" t="n">
-        <v>92.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.448</v>
       </c>
       <c r="L16" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.333</v>
+        <v>0.327</v>
       </c>
       <c r="O16" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="P16" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="S16" t="n">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
       <c r="T16" t="n">
-        <v>45.3</v>
+        <v>45.8</v>
       </c>
       <c r="U16" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="V16" t="n">
         <v>14.2</v>
       </c>
       <c r="W16" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3380,28 +3380,28 @@
         <v>2</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>30</v>
       </c>
       <c r="AQ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>16</v>
@@ -3410,22 +3410,22 @@
         <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW16" t="n">
         <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
@@ -3434,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -3463,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417</v>
+        <v>0.364</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.59999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.486</v>
+        <v>0.479</v>
       </c>
       <c r="L17" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="M17" t="n">
-        <v>35.7</v>
+        <v>36.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="T17" t="n">
-        <v>42.1</v>
+        <v>42.6</v>
       </c>
       <c r="U17" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="V17" t="n">
         <v>18.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>110.3</v>
+        <v>110</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
@@ -3562,13 +3562,13 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN17" t="n">
         <v>16</v>
@@ -3577,43 +3577,43 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV17" t="n">
         <v>30</v>
       </c>
       <c r="AW17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX17" t="n">
         <v>27</v>
       </c>
       <c r="AY17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
         <v>24</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -3645,94 +3645,94 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.643</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="J18" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" t="n">
-        <v>0.485</v>
+        <v>0.489</v>
       </c>
       <c r="L18" t="n">
-        <v>15.9</v>
+        <v>16.3</v>
       </c>
       <c r="M18" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.403</v>
+        <v>0.411</v>
       </c>
       <c r="O18" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.734</v>
+        <v>0.726</v>
       </c>
       <c r="R18" t="n">
         <v>11</v>
       </c>
       <c r="S18" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="T18" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="U18" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="W18" t="n">
         <v>9.1</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
         <v>5.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="AA18" t="n">
         <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>120.4</v>
+        <v>120.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.9</v>
+        <v>10.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>3</v>
       </c>
       <c r="AF18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -3741,13 +3741,13 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM18" t="n">
         <v>4</v>
@@ -3756,43 +3756,43 @@
         <v>2</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
         <v>22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT18" t="n">
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AW18" t="n">
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB18" t="n">
         <v>2</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -3827,106 +3827,106 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>0.25</v>
+        <v>0.273</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="J19" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="M19" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="O19" t="n">
-        <v>15.8</v>
+        <v>16.3</v>
       </c>
       <c r="P19" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.748</v>
+        <v>0.752</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S19" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="T19" t="n">
-        <v>44.7</v>
+        <v>45.2</v>
       </c>
       <c r="U19" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="W19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>107.7</v>
+        <v>108.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.2</v>
+        <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
       </c>
       <c r="AF19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG19" t="n">
         <v>28</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>29</v>
       </c>
       <c r="AH19" t="n">
         <v>4</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>24</v>
@@ -3938,40 +3938,40 @@
         <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>16</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW19" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AX19" t="n">
         <v>14</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
         <v>17</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -4087,22 +4087,22 @@
         <v>-1</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4114,7 +4114,7 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
         <v>26</v>
@@ -4129,10 +4129,10 @@
         <v>28</v>
       </c>
       <c r="AR20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT20" t="n">
         <v>4</v>
@@ -4147,19 +4147,19 @@
         <v>18</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>18</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -4191,94 +4191,94 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.467</v>
+        <v>0.429</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>37.7</v>
+        <v>38.2</v>
       </c>
       <c r="J21" t="n">
-        <v>84.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.451</v>
       </c>
       <c r="L21" t="n">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M21" t="n">
         <v>27.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.343</v>
+        <v>0.354</v>
       </c>
       <c r="O21" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="P21" t="n">
-        <v>21.1</v>
+        <v>20.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.747</v>
+        <v>0.752</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="T21" t="n">
-        <v>46.5</v>
+        <v>46.1</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="V21" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.6</v>
+        <v>101.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -4290,61 +4290,61 @@
         <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -4451,28 +4451,28 @@
         <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4481,13 +4481,13 @@
         <v>5</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
@@ -4499,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>26</v>
@@ -4508,13 +4508,13 @@
         <v>16</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
         <v>11</v>
@@ -4523,7 +4523,7 @@
         <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC22" t="n">
         <v>27</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -4555,106 +4555,106 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.429</v>
+        <v>0.462</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="J23" t="n">
-        <v>91.40000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.429</v>
+        <v>0.436</v>
       </c>
       <c r="L23" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O23" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P23" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.801</v>
+        <v>0.797</v>
       </c>
       <c r="R23" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S23" t="n">
-        <v>34.7</v>
+        <v>34.2</v>
       </c>
       <c r="T23" t="n">
-        <v>46.4</v>
+        <v>46.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V23" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>104.5</v>
+        <v>106.1</v>
       </c>
       <c r="AC23" t="n">
         <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4669,7 +4669,7 @@
         <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ23" t="n">
         <v>8</v>
@@ -4678,34 +4678,34 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
         <v>30</v>
       </c>
       <c r="AV23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -4815,22 +4815,22 @@
         <v>3.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ24" t="n">
         <v>16</v>
@@ -4857,10 +4857,10 @@
         <v>14</v>
       </c>
       <c r="AR24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
         <v>6</v>
@@ -4890,7 +4890,7 @@
         <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -4919,160 +4919,160 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.583</v>
+        <v>0.636</v>
       </c>
       <c r="H25" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I25" t="n">
         <v>40.3</v>
       </c>
       <c r="J25" t="n">
-        <v>86.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L25" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="M25" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.371</v>
+        <v>0.367</v>
       </c>
       <c r="O25" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="P25" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.826</v>
       </c>
       <c r="R25" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="S25" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="T25" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U25" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="V25" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="W25" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="X25" t="n">
         <v>4.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>109.9</v>
+        <v>110.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="n">
         <v>4</v>
       </c>
       <c r="AI25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
         <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>3</v>
       </c>
       <c r="AW25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BC25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -5101,136 +5101,136 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.571</v>
+        <v>0.615</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="J26" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L26" t="n">
-        <v>15.9</v>
+        <v>16.3</v>
       </c>
       <c r="M26" t="n">
-        <v>42.4</v>
+        <v>42.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.374</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S26" t="n">
-        <v>34.4</v>
+        <v>35</v>
       </c>
       <c r="T26" t="n">
-        <v>43.9</v>
+        <v>44.6</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V26" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W26" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
         <v>5.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>114.9</v>
+        <v>115.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>4</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>3</v>
       </c>
       <c r="AK26" t="n">
         <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
@@ -5239,22 +5239,22 @@
         <v>11</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>14</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -5361,25 +5361,25 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>10</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
         <v>11</v>
@@ -5391,28 +5391,28 @@
         <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR27" t="n">
         <v>15</v>
       </c>
       <c r="AS27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT27" t="n">
         <v>28</v>
       </c>
-      <c r="AT27" t="n">
-        <v>27</v>
-      </c>
       <c r="AU27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV27" t="n">
         <v>9</v>
@@ -5424,7 +5424,7 @@
         <v>11</v>
       </c>
       <c r="AY27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
         <v>14</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -5465,64 +5465,64 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="J28" t="n">
-        <v>94.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.447</v>
+        <v>0.441</v>
       </c>
       <c r="L28" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="M28" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.37</v>
+        <v>0.363</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P28" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.784</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>36.3</v>
       </c>
       <c r="T28" t="n">
-        <v>46.2</v>
+        <v>46.1</v>
       </c>
       <c r="U28" t="n">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="V28" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
@@ -5531,40 +5531,40 @@
         <v>6.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>111.1</v>
+        <v>110.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI28" t="n">
         <v>9</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
         <v>25</v>
@@ -5573,28 +5573,28 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>27</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU28" t="n">
         <v>16</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>12</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5603,22 +5603,22 @@
         <v>20</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -5647,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>0.385</v>
+        <v>0.333</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>39.5</v>
+        <v>39.1</v>
       </c>
       <c r="J29" t="n">
-        <v>88.90000000000001</v>
+        <v>89</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.439</v>
       </c>
       <c r="L29" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="M29" t="n">
-        <v>43.1</v>
+        <v>43.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P29" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.805</v>
+        <v>0.799</v>
       </c>
       <c r="R29" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="T29" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U29" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="V29" t="n">
         <v>14.7</v>
@@ -5710,46 +5710,46 @@
         <v>6.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z29" t="n">
         <v>22.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="n">
-        <v>111.8</v>
+        <v>111.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF29" t="n">
         <v>23</v>
       </c>
-      <c r="AF29" t="n">
-        <v>21</v>
-      </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM29" t="n">
         <v>1</v>
@@ -5758,25 +5758,25 @@
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>18</v>
       </c>
       <c r="AS29" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>14</v>
@@ -5788,19 +5788,19 @@
         <v>4</v>
       </c>
       <c r="AY29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB29" t="n">
         <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -5907,13 +5907,13 @@
         <v>5.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>3</v>
       </c>
       <c r="AF30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG30" t="n">
         <v>3</v>
@@ -5925,13 +5925,13 @@
         <v>14</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM30" t="n">
         <v>3</v>
@@ -5943,13 +5943,13 @@
         <v>30</v>
       </c>
       <c r="AP30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ30" t="n">
         <v>29</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>1</v>
@@ -5964,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX30" t="n">
         <v>7</v>
@@ -5976,10 +5976,10 @@
         <v>3</v>
       </c>
       <c r="BA30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC30" t="n">
         <v>5</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
@@ -6089,13 +6089,13 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6110,10 +6110,10 @@
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM31" t="n">
         <v>21</v>
@@ -6128,22 +6128,22 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW31" t="n">
         <v>19</v>
@@ -6158,7 +6158,7 @@
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB31" t="n">
         <v>1</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-18-2020-21</t>
+          <t>2021-01-18</t>
         </is>
       </c>
     </row>
